--- a/medicine/Psychotrope/Lacryma_Christi_(vin)/Lacryma_Christi_(vin).xlsx
+++ b/medicine/Psychotrope/Lacryma_Christi_(vin)/Lacryma_Christi_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lacryma Christi, « larme du Christ » (ou Lacryma Christi del Vesuvio, ou Vesuvio), est un vin napolitain. 
 Produit autrefois par des moines dont le couvent s’érigeait sur les pentes du Vésuve, il semble que plus tard, les jésuites, propriétaires de vastes étendues dans ces localités, furent les producteurs et les détenteurs quasi exclusifs de ce vignoble.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins du Vésuve, déjà appréciés à l'époque romaine pour leur caractère corsé et leur bonne qualité, sont issus de vignobles situés sur les pentes du volcan : « Haec iuga quam Nysae colles plus Bacchus amavit » (« Bacchus aima ces collines plus que ses collines natales de Nysa ») chantait le poète latin Martial. 
 La renommée de ce vin a inspiré mythes et légendes : « Dieu reconnaissant dans le golfe de Naples un lambeau du ciel arraché par Lucifer pendant sa chute vers les enfers, pleura et là où les larmes divines tombèrent surgit la vigne du Lacrima Christi » dit une légende locale. 
@@ -545,9 +559,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lacryma Christi est une mention traditionnelle de la Denominazione di Origine Controllata (Appellation d’origine contrôlée, ou DOC) Vesuvio (DPR. 13.01.1983 - DM 31.11.1991)[1] avec une production annuelle de 12 986 hl. Ne peuvent bénéficier de cette mention de Lacryma Christi que les vins de l'aire géographique du Vesuvio produits à partir de raisins à surmaturité, récoltés quand leurs grains laissent exsuder des « larmes » de sucre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lacryma Christi est une mention traditionnelle de la Denominazione di Origine Controllata (Appellation d’origine contrôlée, ou DOC) Vesuvio (DPR. 13.01.1983 - DM 31.11.1991) avec une production annuelle de 12 986 hl. Ne peuvent bénéficier de cette mention de Lacryma Christi que les vins de l'aire géographique du Vesuvio produits à partir de raisins à surmaturité, récoltés quand leurs grains laissent exsuder des « larmes » de sucre.
 Ces raisins sont cultivés seulement dans quinze communes de la province de Naples, à vocation vitivinicole et situées dans la zone de piémont du Vésuve où les vignobles sont constitués de variétés autochtones, cultivées depuis toujours dans cette région :
 Les variétés Coda di Volpe (connue localement sous le nom de Caprettone ou Crapettone), Verdeca, Falanghina et Greco concourent à la réalisation du Lacryma Christi blanc ;
 Les variétés Piedirosso (ou Per e Palummo) appelée localement Palombina (ou Palummina), Sciascinoso (appelée localement Olivella) et Aglianico concourent à la réalisation du Lacryma Christi rouge.</t>
@@ -578,7 +594,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lacryma Christi blanc
 Couleur : jaune paille plus ou moins foncé.
@@ -635,7 +653,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation d'origine contrôlée concerne aujourd'hui les communes de Boscotrecase, Trecase, San Sebastiano al Vesuvio et en partie celles de Ottaviano, San Giuseppe Vesuviano, Terzigno, Boscoreale, Torre Annunziata, Torre del Greco, Ercolano, Portici, Cercola, Pollena Trocchia, Sant'Anastasia et Somma Vesuviana, en pratique toutes les localités implantées sur les pentes du volcan.
 Il existait autrefois d'autres qualités de « Lacryma », parmi lesquelles les plus renommées étaient celles de Somma et de Galitte.
